--- a/sofaplayer/Bundesliga/Eintracht Frankfurt_stats.xlsx
+++ b/sofaplayer/Bundesliga/Eintracht Frankfurt_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL25"/>
+  <dimension ref="A1:DL26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1747,16 +1747,16 @@
         <v>954061</v>
       </c>
       <c r="E4" t="n">
-        <v>6.6666666666667</v>
+        <v>6.6571428571429</v>
       </c>
       <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
       <c r="H4" t="n">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -1765,22 +1765,22 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.1929</v>
+        <v>1.2729</v>
       </c>
       <c r="L4" t="n">
-        <v>229.5</v>
+        <v>238</v>
       </c>
       <c r="M4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>18.181818181818</v>
+        <v>16.666666666667</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0.3425502</v>
       </c>
       <c r="AB4" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC4" t="n">
         <v>2</v>
@@ -1918,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK4" t="n">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>40</v>
+        <v>46.6</v>
       </c>
       <c r="BR4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS4" t="n">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CA4" t="n">
         <v>1</v>
@@ -2459,34 +2459,34 @@
         <v>1898148</v>
       </c>
       <c r="E6" t="n">
-        <v>6.72</v>
+        <v>6.85</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0709</v>
+        <v>0.1486</v>
       </c>
       <c r="L6" t="n">
-        <v>74</v>
+        <v>76.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -2525,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.14314654</v>
+        <v>0.14394826</v>
       </c>
       <c r="AB6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -2537,22 +2537,22 @@
         <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>69.230769230769</v>
+        <v>63.157894736842</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -2576,10 +2576,10 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -2597,22 +2597,22 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>28.571428571429</v>
+        <v>40</v>
       </c>
       <c r="BA6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
-        <v>27.777777777778</v>
+        <v>31.034482758621</v>
       </c>
       <c r="BC6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD6" t="n">
-        <v>29.411764705882</v>
+        <v>37.5</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
@@ -2621,16 +2621,16 @@
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="BH6" t="n">
         <v>4</v>
       </c>
       <c r="BI6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK6" t="n">
         <v>1</v>
@@ -2651,43 +2651,43 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>33.6</v>
+        <v>41.1</v>
       </c>
       <c r="BR6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC6" t="n">
         <v>4</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>2</v>
       </c>
       <c r="CD6" t="n">
         <v>1</v>
@@ -2735,16 +2735,16 @@
         <v>2</v>
       </c>
       <c r="CS6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CT6" t="n">
         <v>9</v>
       </c>
       <c r="CU6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="CV6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA6" t="n">
         <v>0</v>
@@ -2774,16 +2774,16 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DG6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ6" t="n">
         <v>2590409</v>
@@ -3527,16 +3527,16 @@
         <v>66518</v>
       </c>
       <c r="E9" t="n">
-        <v>6.5133333333333</v>
+        <v>6.50625</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3593,34 +3593,34 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.43497628</v>
+        <v>1.44653868</v>
       </c>
       <c r="AB9" t="n">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="AC9" t="n">
         <v>2</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="AF9" t="n">
-        <v>84.477611940299</v>
+        <v>84.615384615385</v>
       </c>
       <c r="AG9" t="n">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="AH9" t="n">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="AI9" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AJ9" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AK9" t="n">
         <v>11</v>
@@ -3629,25 +3629,25 @@
         <v>57.894736842105</v>
       </c>
       <c r="AM9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN9" t="n">
-        <v>22.222222222222</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>5</v>
       </c>
       <c r="AP9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ9" t="n">
         <v>7</v>
       </c>
       <c r="AR9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -3671,16 +3671,16 @@
         <v>33.333333333333</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB9" t="n">
-        <v>33.823529411765</v>
+        <v>34.666666666667</v>
       </c>
       <c r="BC9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
-        <v>41.818181818182</v>
+        <v>41.935483870968</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
@@ -3689,19 +3689,19 @@
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BH9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BJ9" t="n">
         <v>1</v>
       </c>
       <c r="BK9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL9" t="n">
         <v>0</v>
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>97.7</v>
+        <v>104.1</v>
       </c>
       <c r="BR9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS9" t="n">
         <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CC9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CD9" t="n">
         <v>5</v>
@@ -3800,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS9" t="n">
         <v>9</v>
       </c>
       <c r="CT9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CU9" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="CV9" t="n">
         <v>13</v>
@@ -3830,7 +3830,7 @@
         <v>6</v>
       </c>
       <c r="DB9" t="n">
-        <v>60</v>
+        <v>54.545454545455</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3842,16 +3842,16 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="DG9" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ9" t="n">
         <v>2163113</v>
@@ -3883,16 +3883,16 @@
         <v>790965</v>
       </c>
       <c r="E10" t="n">
-        <v>6.9</v>
+        <v>6.9272727272727</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
-        <v>1727</v>
+        <v>1817</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -3901,22 +3901,22 @@
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5014</v>
+        <v>2.5306</v>
       </c>
       <c r="L10" t="n">
-        <v>431.75</v>
+        <v>454.25</v>
       </c>
       <c r="M10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
         <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>13.793103448276</v>
+        <v>13.333333333333</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3949,64 +3949,64 @@
         <v>5</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.83439897</v>
+        <v>4.07322397</v>
       </c>
       <c r="AB10" t="n">
-        <v>1065</v>
+        <v>1105</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="AF10" t="n">
-        <v>76.018808777429</v>
+        <v>76.541353383459</v>
       </c>
       <c r="AG10" t="n">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="AH10" t="n">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="AI10" t="n">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AJ10" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>44.117647058824</v>
+        <v>47.368421052632</v>
       </c>
       <c r="AM10" t="n">
         <v>20</v>
       </c>
       <c r="AN10" t="n">
-        <v>23.529411764706</v>
+        <v>22.988505747126</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>35</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR10" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>45</v>
+        <v>46.774193548387</v>
       </c>
       <c r="BA10" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="BB10" t="n">
-        <v>43.514644351464</v>
+        <v>44.262295081967</v>
       </c>
       <c r="BC10" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="BD10" t="n">
-        <v>45.263157894737</v>
+        <v>46.153846153846</v>
       </c>
       <c r="BE10" t="n">
         <v>18</v>
@@ -4045,13 +4045,13 @@
         <v>36.734693877551</v>
       </c>
       <c r="BG10" t="n">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="BH10" t="n">
         <v>16</v>
       </c>
       <c r="BI10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BJ10" t="n">
         <v>1</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO10" t="n">
         <v>36</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>144.9</v>
+        <v>152.4</v>
       </c>
       <c r="BR10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS10" t="n">
         <v>9</v>
       </c>
       <c r="BT10" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4105,16 +4105,16 @@
         <v>17</v>
       </c>
       <c r="CA10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CB10" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CC10" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="CD10" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4156,16 +4156,16 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CS10" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="CT10" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="CU10" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="CV10" t="n">
         <v>31</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="DA10" t="n">
         <v>18</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="DG10" t="n">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>591706</v>
       </c>
       <c r="E11" t="n">
-        <v>6.6</v>
+        <v>6.6142857142857</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
         <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.40176037</v>
+        <v>0.40377174</v>
       </c>
       <c r="AB11" t="n">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -4317,28 +4317,28 @@
         <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="AF11" t="n">
-        <v>85.931558935361</v>
+        <v>85.928705440901</v>
       </c>
       <c r="AG11" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="AH11" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AI11" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AJ11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK11" t="n">
         <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>42.553191489362</v>
+        <v>41.666666666667</v>
       </c>
       <c r="AM11" t="n">
         <v>1</v>
@@ -4350,13 +4350,13 @@
         <v>18</v>
       </c>
       <c r="AP11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
         <v>7</v>
@@ -4383,16 +4383,16 @@
         <v>40</v>
       </c>
       <c r="BA11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BB11" t="n">
-        <v>46.153846153846</v>
+        <v>47.761194029851</v>
       </c>
       <c r="BC11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD11" t="n">
-        <v>42.5</v>
+        <v>45.238095238095</v>
       </c>
       <c r="BE11" t="n">
         <v>13</v>
@@ -4401,13 +4401,13 @@
         <v>52</v>
       </c>
       <c r="BG11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BH11" t="n">
         <v>8</v>
       </c>
       <c r="BI11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>85.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="BR11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4467,7 +4467,7 @@
         <v>5</v>
       </c>
       <c r="CC11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CD11" t="n">
         <v>12</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="DA11" t="n">
         <v>2</v>
       </c>
       <c r="DB11" t="n">
-        <v>25</v>
+        <v>22.222222222222</v>
       </c>
       <c r="DC11" t="n">
         <v>1</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="DG11" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>1142211</v>
       </c>
       <c r="E12" t="n">
-        <v>6.6428571428571</v>
+        <v>6.6933333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>893</v>
+        <v>972</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4613,22 +4613,22 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.775</v>
+        <v>0.8329</v>
       </c>
       <c r="L12" t="n">
-        <v>893</v>
+        <v>972</v>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>16.666666666667</v>
+        <v>14.285714285714</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -4661,52 +4661,52 @@
         <v>2</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.5322953</v>
+        <v>0.9401373</v>
       </c>
       <c r="AB12" t="n">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="AF12" t="n">
-        <v>81.458333333333</v>
+        <v>81.976744186047</v>
       </c>
       <c r="AG12" t="n">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="AH12" t="n">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="AI12" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AJ12" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>54.545454545455</v>
+        <v>54.166666666667</v>
       </c>
       <c r="AM12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AO12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP12" t="n">
         <v>11</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>10</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
@@ -4718,7 +4718,7 @@
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AU12" t="n">
         <v>2</v>
@@ -4739,25 +4739,25 @@
         <v>75</v>
       </c>
       <c r="BA12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BB12" t="n">
-        <v>50</v>
+        <v>53.846153846154</v>
       </c>
       <c r="BC12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD12" t="n">
-        <v>50</v>
+        <v>51.851851851852</v>
       </c>
       <c r="BE12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF12" t="n">
-        <v>50</v>
+        <v>58.333333333333</v>
       </c>
       <c r="BG12" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="BH12" t="n">
         <v>4</v>
@@ -4787,16 +4787,16 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>93</v>
+        <v>100.4</v>
       </c>
       <c r="BR12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS12" t="n">
         <v>3</v>
       </c>
       <c r="BT12" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="CA12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB12" t="n">
         <v>4</v>
       </c>
       <c r="CC12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CD12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4868,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS12" t="n">
         <v>4</v>
       </c>
       <c r="CT12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CU12" t="n">
         <v>18</v>
@@ -4892,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="DA12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB12" t="n">
-        <v>40</v>
+        <v>45.454545454545</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="DG12" t="n">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>1146148</v>
       </c>
       <c r="E13" t="n">
-        <v>6.8333333333333</v>
+        <v>6.8842105263158</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" t="n">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -4969,13 +4969,13 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>1.4856</v>
+        <v>1.5203</v>
       </c>
       <c r="L13" t="n">
-        <v>374.5</v>
+        <v>419.5</v>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N13" t="n">
         <v>4</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>15.384615384615</v>
+        <v>14.285714285714</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -5014,49 +5014,49 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.83328184</v>
+        <v>2.13948984</v>
       </c>
       <c r="AB13" t="n">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="AC13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="AF13" t="n">
-        <v>79.916317991632</v>
+        <v>80.152671755725</v>
       </c>
       <c r="AG13" t="n">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="AH13" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="AJ13" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
         <v>5</v>
       </c>
       <c r="AL13" t="n">
-        <v>35.714285714286</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AM13" t="n">
         <v>6</v>
       </c>
       <c r="AN13" t="n">
-        <v>27.272727272727</v>
+        <v>26.086956521739</v>
       </c>
       <c r="AO13" t="n">
         <v>8</v>
@@ -5068,16 +5068,16 @@
         <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
@@ -5089,40 +5089,40 @@
         <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>58.333333333333</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BB13" t="n">
-        <v>55</v>
+        <v>53.211009174312</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BD13" t="n">
-        <v>61.44578313253</v>
+        <v>60</v>
       </c>
       <c r="BE13" t="n">
         <v>4</v>
       </c>
       <c r="BF13" t="n">
-        <v>23.529411764706</v>
+        <v>21.052631578947</v>
       </c>
       <c r="BG13" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="BH13" t="n">
         <v>10</v>
       </c>
       <c r="BI13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK13" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO13" t="n">
         <v>22</v>
@@ -5143,16 +5143,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>123</v>
+        <v>130.8</v>
       </c>
       <c r="BR13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BT13" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5173,16 +5173,16 @@
         <v>10</v>
       </c>
       <c r="CA13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CB13" t="n">
         <v>10</v>
       </c>
       <c r="CC13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CD13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5224,20 +5224,20 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>28</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>23</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>51</v>
+      </c>
+      <c r="CV13" t="n">
         <v>15</v>
       </c>
-      <c r="CS13" t="n">
-        <v>24</v>
-      </c>
-      <c r="CT13" t="n">
-        <v>22</v>
-      </c>
-      <c r="CU13" t="n">
-        <v>45</v>
-      </c>
-      <c r="CV13" t="n">
-        <v>13</v>
-      </c>
       <c r="CW13" t="n">
         <v>0</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DA13" t="n">
         <v>6</v>
@@ -5266,16 +5266,16 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="DG13" t="n">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DJ13" t="n">
         <v>2163119</v>
@@ -5307,40 +5307,40 @@
         <v>997012</v>
       </c>
       <c r="E14" t="n">
-        <v>6.5842105263158</v>
+        <v>6.64</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.4708</v>
+      </c>
+      <c r="L14" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>26</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
         <v>3</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.3803</v>
-      </c>
-      <c r="L14" t="n">
-        <v>331.33333333333</v>
-      </c>
-      <c r="M14" t="n">
-        <v>24</v>
-      </c>
-      <c r="N14" t="n">
-        <v>11</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
       <c r="P14" t="n">
-        <v>12.5</v>
+        <v>15.384615384615</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -5352,20 +5352,20 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
+        <v>4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
         <v>3</v>
       </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>2</v>
-      </c>
       <c r="Y14" t="n">
         <v>1</v>
       </c>
@@ -5373,10 +5373,10 @@
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.39470507</v>
+        <v>1.39470622</v>
       </c>
       <c r="AB14" t="n">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="AC14" t="n">
         <v>4</v>
@@ -5385,16 +5385,16 @@
         <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF14" t="n">
-        <v>71.544715447154</v>
+        <v>71.084337349398</v>
       </c>
       <c r="AG14" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AH14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="n">
         <v>129</v>
@@ -5418,7 +5418,7 @@
         <v>7</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ14" t="n">
         <v>7</v>
@@ -5445,31 +5445,31 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>47.058823529412</v>
+        <v>50</v>
       </c>
       <c r="BA14" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BB14" t="n">
-        <v>32.743362831858</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BC14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BD14" t="n">
-        <v>35.526315789474</v>
+        <v>37.179487179487</v>
       </c>
       <c r="BE14" t="n">
         <v>10</v>
       </c>
       <c r="BF14" t="n">
-        <v>27.027027027027</v>
+        <v>25.641025641026</v>
       </c>
       <c r="BG14" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="BH14" t="n">
         <v>20</v>
@@ -5499,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>125.1</v>
+        <v>132.8</v>
       </c>
       <c r="BR14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT14" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CA14" t="n">
         <v>3</v>
@@ -5583,16 +5583,16 @@
         <v>16</v>
       </c>
       <c r="CS14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CT14" t="n">
         <v>29</v>
       </c>
       <c r="CU14" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="CV14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -5607,10 +5607,10 @@
         <v>5</v>
       </c>
       <c r="DA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DB14" t="n">
-        <v>77.777777777778</v>
+        <v>80</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="DG14" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>341589</v>
       </c>
       <c r="E15" t="n">
-        <v>6.6545454545455</v>
+        <v>6.65</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>506</v>
+        <v>579</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5681,13 +5681,13 @@
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6842</v>
+        <v>0.7388</v>
       </c>
       <c r="L15" t="n">
-        <v>253</v>
+        <v>289.5</v>
       </c>
       <c r="M15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N15" t="n">
         <v>2</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15.384615384615</v>
+        <v>14.285714285714</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -5729,40 +5729,40 @@
         <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.26584637</v>
+        <v>0.27446865</v>
       </c>
       <c r="AB15" t="n">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="AF15" t="n">
-        <v>80.514705882353</v>
+        <v>80.068728522337</v>
       </c>
       <c r="AG15" t="n">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="AH15" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AI15" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AJ15" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AK15" t="n">
         <v>9</v>
       </c>
       <c r="AL15" t="n">
-        <v>34.615384615385</v>
+        <v>32.142857142857</v>
       </c>
       <c r="AM15" t="n">
         <v>1</v>
@@ -5774,19 +5774,19 @@
         <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS15" t="n">
         <v>6</v>
       </c>
       <c r="AT15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU15" t="n">
         <v>5</v>
@@ -5807,16 +5807,16 @@
         <v>71.428571428571</v>
       </c>
       <c r="BA15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB15" t="n">
-        <v>35.294117647059</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD15" t="n">
-        <v>34.210526315789</v>
+        <v>35.714285714286</v>
       </c>
       <c r="BE15" t="n">
         <v>5</v>
@@ -5825,10 +5825,10 @@
         <v>38.461538461538</v>
       </c>
       <c r="BG15" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="BH15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI15" t="n">
         <v>1</v>
@@ -5855,22 +5855,22 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>73.2</v>
+        <v>79.8</v>
       </c>
       <c r="BR15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS15" t="n">
         <v>4</v>
       </c>
       <c r="BT15" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -5882,16 +5882,16 @@
         <v>2</v>
       </c>
       <c r="BZ15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA15" t="n">
         <v>9</v>
       </c>
       <c r="CB15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CD15" t="n">
         <v>7</v>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS15" t="n">
         <v>7</v>
@@ -5945,7 +5945,7 @@
         <v>6</v>
       </c>
       <c r="CU15" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CV15" t="n">
         <v>8</v>
@@ -5960,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="DA15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DB15" t="n">
-        <v>42.857142857143</v>
+        <v>55.555555555556</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="DG15" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6368,299 +6368,297 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Arthur Theate</t>
+          <t>Love Arrhov</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>965778</v>
+        <v>1977245</v>
       </c>
       <c r="E17" t="n">
-        <v>6.8210526315789</v>
+        <v>6.5</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1702</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.6995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1702</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.0127921</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="n">
         <v>4</v>
       </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>11.111111111111</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1.17044189</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1625</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1148</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>89.75762314308101</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1279</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>666</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>482</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>51.260504201681</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.090909090909101</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU17" t="n">
         <v>3</v>
       </c>
-      <c r="AW17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>70</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>52.631578947368</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>46</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>24</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>186</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>13</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>8</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>41</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>129.6</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>19</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>131</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>6</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>69</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>38</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>33</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>8</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>11</v>
-      </c>
-      <c r="CS17" t="n">
-        <v>8</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>11</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>63</v>
-      </c>
       <c r="CV17" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6672,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="DA17" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="DB17" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6690,19 +6688,19 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>694</v>
+        <v>1</v>
       </c>
       <c r="DG17" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="DH17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DJ17" t="n">
-        <v>2163151</v>
+        <v>2675057</v>
       </c>
       <c r="DK17" t="inlineStr">
         <is>
@@ -6724,47 +6722,47 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Robin Koch</t>
+          <t>Arthur Theate</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>581302</v>
+        <v>965778</v>
       </c>
       <c r="E18" t="n">
-        <v>6.8952380952381</v>
+        <v>6.8210526315789</v>
       </c>
       <c r="F18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H18" t="n">
-        <v>1862</v>
+        <v>1702</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1.2196</v>
+        <v>0.6995</v>
       </c>
       <c r="L18" t="n">
-        <v>620.66666666667</v>
+        <v>1702</v>
       </c>
       <c r="M18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>25</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -6776,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -6785,202 +6783,202 @@
         <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.7261256699999999</v>
+        <v>1.17044189</v>
       </c>
       <c r="AB18" t="n">
-        <v>1685</v>
+        <v>1625</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1148</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>89.75762314308101</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1279</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>666</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>482</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>184</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>61</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>51.260504201681</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>9.090909090909101</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1256</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>90.751445086705</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1384</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>817</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>439</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>68</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>48.22695035461</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>63</v>
       </c>
       <c r="AS18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>112</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
         <v>4</v>
       </c>
-      <c r="AT18" t="n">
-        <v>144</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>2</v>
-      </c>
       <c r="AZ18" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>52.631578947368</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>46</v>
+      </c>
+      <c r="BD18" t="n">
         <v>66.666666666667</v>
       </c>
-      <c r="BA18" t="n">
-        <v>106</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>59.550561797753</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>32</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>54.237288135593</v>
-      </c>
       <c r="BE18" t="n">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="BF18" t="n">
-        <v>62.18487394958</v>
+        <v>37.5</v>
       </c>
       <c r="BG18" t="n">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="BH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="BR18" t="n">
         <v>19</v>
       </c>
-      <c r="BI18" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>46</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>21</v>
-      </c>
       <c r="BS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>131</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ18" t="n">
         <v>3</v>
       </c>
-      <c r="BT18" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>7</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>12</v>
-      </c>
       <c r="CA18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CB18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CC18" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CD18" t="n">
+        <v>38</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
         <v>33</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>38</v>
       </c>
       <c r="CK18" t="n">
         <v>8</v>
@@ -7004,19 +7002,19 @@
         <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="CS18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="CT18" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="CU18" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="CV18" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7028,37 +7026,37 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="DA18" t="n">
+        <v>18</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>60</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>694</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>585</v>
+      </c>
+      <c r="DH18" t="n">
         <v>11</v>
       </c>
-      <c r="DB18" t="n">
-        <v>50</v>
-      </c>
-      <c r="DC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF18" t="n">
-        <v>850</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>534</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>25</v>
-      </c>
       <c r="DI18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="DJ18" t="n">
-        <v>2163097</v>
+        <v>2163151</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7080,245 +7078,245 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nathaniel Brown</t>
+          <t>Robin Koch</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1159759</v>
+        <v>581302</v>
       </c>
       <c r="E19" t="n">
-        <v>6.75</v>
+        <v>6.9272727272727</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H19" t="n">
-        <v>1533</v>
+        <v>1952</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>1.8931</v>
+        <v>1.2196</v>
       </c>
       <c r="L19" t="n">
-        <v>766.5</v>
+        <v>650.66666666667</v>
       </c>
       <c r="M19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.72963642</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1746</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
         <v>6</v>
       </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>18.181818181818</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AE19" t="n">
+        <v>1297</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>90.82633053221301</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1428</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>847</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>450</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>69</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>47.586206896552</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>66</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>149</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>111</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>59.677419354839</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>35</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>53.846153846154</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>76</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>62.809917355372</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>158</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>46</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>131</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
         <v>4</v>
       </c>
-      <c r="AA19" t="n">
-        <v>2.11557653</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>969</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>81.967213114754</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>610</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>277</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>223</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>109</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>37.735849056604</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>22.222222222222</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>48</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>64</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>44</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>85</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>55.194805194805</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>79</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>59.398496240602</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>28.571428571429</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>199</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>14</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>20</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>37</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>135</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>20</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>6</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>110</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>7</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>4</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>13</v>
-      </c>
       <c r="CC19" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="CD19" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7336,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="CK19" t="n">
         <v>8</v>
@@ -7360,61 +7358,61 @@
         <v>0</v>
       </c>
       <c r="CR19" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="CS19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>75</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>45</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>145</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>52</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>881</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>547</v>
+      </c>
+      <c r="DH19" t="n">
         <v>25</v>
       </c>
-      <c r="CT19" t="n">
-        <v>27</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>69</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>15</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>53</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>34</v>
-      </c>
-      <c r="DB19" t="n">
-        <v>70.833333333333</v>
-      </c>
-      <c r="DC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>320</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>290</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>0</v>
-      </c>
       <c r="DI19" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="DJ19" t="n">
-        <v>2163109</v>
+        <v>2163097</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7436,47 +7434,47 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Rasmus Kristensen</t>
+          <t>Nathaniel Brown</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>921789</v>
+        <v>1159759</v>
       </c>
       <c r="E20" t="n">
-        <v>7.0444444444444</v>
+        <v>6.8047619047619</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G20" t="n">
         <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>1389</v>
+        <v>1623</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6536</v>
+        <v>2.0737</v>
       </c>
       <c r="L20" t="n">
-        <v>694.5</v>
+        <v>541</v>
       </c>
       <c r="M20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>14.285714285714</v>
+        <v>23.076923076923</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -7491,166 +7489,166 @@
         <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.12100583</v>
+        <v>2.12818103</v>
       </c>
       <c r="AB20" t="n">
-        <v>1349</v>
+        <v>1035</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>721</v>
+        <v>542</v>
       </c>
       <c r="AF20" t="n">
-        <v>79.75663716814201</v>
+        <v>82.87461773700301</v>
       </c>
       <c r="AG20" t="n">
-        <v>904</v>
+        <v>654</v>
       </c>
       <c r="AH20" t="n">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="AI20" t="n">
-        <v>387</v>
+        <v>238</v>
       </c>
       <c r="AJ20" t="n">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="n">
-        <v>46.875</v>
+        <v>37.735849056604</v>
       </c>
       <c r="AM20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN20" t="n">
-        <v>12.903225806452</v>
+        <v>22.222222222222</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AQ20" t="n">
         <v>7</v>
       </c>
       <c r="AR20" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="AS20" t="n">
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="AU20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>44</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>89</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>53.939393939394</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>83</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>57.638888888889</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>28.571428571429</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>209</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>20</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK20" t="n">
         <v>3</v>
       </c>
-      <c r="AV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>65</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>97</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>57.738095238095</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>67</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>55.833333333333</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>30</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>284</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>20</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ20" t="n">
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
         <v>3</v>
       </c>
-      <c r="BK20" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>2</v>
-      </c>
       <c r="BO20" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>126.8</v>
+        <v>142.9</v>
       </c>
       <c r="BR20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BS20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BT20" t="n">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
       </c>
       <c r="BV20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BW20" t="n">
         <v>0</v>
@@ -7662,19 +7660,19 @@
         <v>0</v>
       </c>
       <c r="BZ20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CA20" t="n">
         <v>5</v>
       </c>
       <c r="CB20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CC20" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="CD20" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7692,10 +7690,10 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="CK20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -7716,19 +7714,19 @@
         <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="CS20" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="CT20" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="CU20" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="CV20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7740,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="DA20" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="DB20" t="n">
-        <v>74.41860465116299</v>
+        <v>71.153846153846</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7758,19 +7756,19 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="DG20" t="n">
-        <v>521</v>
+        <v>305</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
       </c>
       <c r="DI20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2163143</v>
+        <v>2163109</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7792,47 +7790,47 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nnamdi Collins</t>
+          <t>Rasmus Kristensen</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1048569</v>
+        <v>921789</v>
       </c>
       <c r="E21" t="n">
-        <v>6.5117647058824</v>
+        <v>7.0368421052632</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H21" t="n">
-        <v>1039</v>
+        <v>1434</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2069</v>
+        <v>0.6536</v>
       </c>
       <c r="L21" t="n">
-        <v>1039</v>
+        <v>717</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>50</v>
+        <v>14.285714285714</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -7844,247 +7842,247 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.2808319</v>
+        <v>1.13840613</v>
       </c>
       <c r="AB21" t="n">
-        <v>904</v>
+        <v>1394</v>
       </c>
       <c r="AC21" t="n">
         <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
-        <v>570</v>
+        <v>745</v>
       </c>
       <c r="AF21" t="n">
-        <v>86.102719033233</v>
+        <v>79.764453961456</v>
       </c>
       <c r="AG21" t="n">
-        <v>662</v>
+        <v>934</v>
       </c>
       <c r="AH21" t="n">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="AI21" t="n">
-        <v>266</v>
+        <v>391</v>
       </c>
       <c r="AJ21" t="n">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AL21" t="n">
-        <v>47.169811320755</v>
+        <v>46.938775510204</v>
       </c>
       <c r="AM21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>12.903225806452</v>
       </c>
       <c r="AO21" t="n">
         <v>18</v>
       </c>
       <c r="AP21" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AQ21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>87</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AU21" t="n">
         <v>3</v>
       </c>
-      <c r="AR21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS21" t="n">
+      <c r="AV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>61.904761904762</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>99</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>57.225433526012</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>69</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>55.645161290323</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>30</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>61.224489795918</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>293</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>27</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>19</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>189</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>5</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>62</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>26</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>24</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
         <v>8</v>
       </c>
-      <c r="AT21" t="n">
-        <v>46</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>35.294117647059</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>63</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>56.756756756757</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>48</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>56.470588235294</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>57.692307692308</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>139</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>14</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>28</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>110.7</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>17</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>92</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>4</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>30</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>15</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>23</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>5</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>2</v>
-      </c>
       <c r="CS21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="CT21" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="CU21" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="CV21" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8096,13 +8094,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="DA21" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="DB21" t="n">
-        <v>61.111111111111</v>
+        <v>71.111111111111</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8114,19 +8112,19 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>332</v>
+        <v>407</v>
       </c>
       <c r="DG21" t="n">
-        <v>330</v>
+        <v>527</v>
       </c>
       <c r="DH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI21" t="n">
         <v>1</v>
       </c>
       <c r="DJ21" t="n">
-        <v>2163147</v>
+        <v>2163143</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8148,317 +8146,317 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Aurèle Amenda</t>
+          <t>Nnamdi Collins</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>999276</v>
+        <v>1048569</v>
       </c>
       <c r="E22" t="n">
-        <v>6.4666666666667</v>
+        <v>6.5444444444444</v>
       </c>
       <c r="F22" t="n">
+        <v>18</v>
+      </c>
+      <c r="G22" t="n">
         <v>11</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
+        <v>1084</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2069</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1084</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.28782429</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>947</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>592</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>86.171761280932</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>687</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>321</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>271</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>47.368421052632</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>39</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>38.888888888889</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>57.758620689655</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>52</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>57.777777777778</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>57.692307692308</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>145</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>28</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>18</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>95</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>32</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>16</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="CK22" t="n">
         <v>5</v>
       </c>
-      <c r="H22" t="n">
-        <v>523</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.3112</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.27043181</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>454</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>308</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>85.79387186629501</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>359</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>202</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>106</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>33</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>37.254901960784</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>63.04347826087</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>40</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>23</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>74.193548387097</v>
-      </c>
-      <c r="BG22" t="n">
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>18</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>49</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>11</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
         <v>57</v>
       </c>
-      <c r="BH22" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>16</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>9</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>51</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>27</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>11</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>15</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>17</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>8</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>51</v>
-      </c>
       <c r="DA22" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="DB22" t="n">
-        <v>33.333333333333</v>
+        <v>64.102564102564</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8470,19 +8468,19 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="DG22" t="n">
-        <v>142</v>
+        <v>337</v>
       </c>
       <c r="DH22" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="DI22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2294415</v>
+        <v>2163147</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8504,339 +8502,341 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Elias Baum</t>
+          <t>Aurèle Amenda</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1403018</v>
+        <v>999276</v>
       </c>
       <c r="E23" t="n">
         <v>6.6</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
+        <v>613</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.27220439</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>516</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>85.78431372548999</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>408</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>240</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>33</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>36.206896551724</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>56</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>37</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>64.912280701754</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>28</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>71.79487179487199</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>64</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>16</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>66</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>58</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>33</v>
+      </c>
+      <c r="CD23" t="n">
         <v>13</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.00290899</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI23" t="n">
+      <c r="CE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>15</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>20</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>11</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>58</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>256</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>152</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="DI23" t="n">
         <v>5</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>50</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF23" t="n">
-        <v>2</v>
-      </c>
-      <c r="DG23" t="n">
-        <v>6</v>
-      </c>
-      <c r="DH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI23" t="n">
-        <v>0</v>
-      </c>
       <c r="DJ23" t="n">
-        <v>2545357</v>
+        <v>2294415</v>
       </c>
       <c r="DK23" t="inlineStr">
         <is>
@@ -8858,23 +8858,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Kauã Santos</t>
+          <t>Elias Baum</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1134203</v>
+        <v>1403018</v>
       </c>
       <c r="E24" t="n">
-        <v>6.27</v>
+        <v>6.6</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>900</v>
+        <v>13</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01902396</v>
+        <v>0.00290899</v>
       </c>
       <c r="AB24" t="n">
-        <v>474</v>
+        <v>14</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8941,28 +8941,28 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
-        <v>62.059620596206</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="n">
-        <v>369</v>
+        <v>8</v>
       </c>
       <c r="AH24" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="AI24" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>28.350515463918</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8974,232 +8974,230 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" t="n">
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX24" t="n">
         <v>0</v>
       </c>
       <c r="AY24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BA24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BB24" t="n">
-        <v>88.888888888889</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BC24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG24" t="n">
         <v>6</v>
       </c>
-      <c r="BF24" t="n">
-        <v>85.71428571428601</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>141</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>26</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>29</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>10</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>140</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>26</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>12</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>18</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>8</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>25</v>
-      </c>
-      <c r="CK24" t="n">
-        <v>4</v>
-      </c>
-      <c r="CL24" t="n">
-        <v>4</v>
-      </c>
-      <c r="CM24" t="n">
-        <v>4</v>
-      </c>
-      <c r="CN24" t="n">
-        <v>4</v>
-      </c>
-      <c r="CO24" t="n">
-        <v>8</v>
-      </c>
-      <c r="CP24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ24" t="n">
-        <v>194</v>
-      </c>
-      <c r="DA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE24" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF24" t="n">
-        <v>232</v>
-      </c>
-      <c r="DG24" t="n">
-        <v>137</v>
-      </c>
       <c r="DH24" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
       </c>
       <c r="DJ24" t="n">
-        <v>2294419</v>
+        <v>2545357</v>
       </c>
       <c r="DK24" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL24" t="n">
-        <v>-9.390700000000001</v>
-      </c>
+      <c r="DL24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9214,14 +9212,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Michael Zetterer</t>
+          <t>Kauã Santos</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>190161</v>
+        <v>1134203</v>
       </c>
       <c r="E25" t="n">
-        <v>6.7363636363636</v>
+        <v>6.5</v>
       </c>
       <c r="F25" t="n">
         <v>11</v>
@@ -9285,10 +9283,10 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.03118931</v>
+        <v>0.01917352</v>
       </c>
       <c r="AB25" t="n">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -9297,28 +9295,28 @@
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="AF25" t="n">
-        <v>73.989898989899</v>
+        <v>63.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AH25" t="n">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="AI25" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AK25" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="AL25" t="n">
-        <v>50</v>
+        <v>29.268292682927</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -9330,64 +9328,64 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX25" t="n">
         <v>0</v>
       </c>
       <c r="AY25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA25" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BB25" t="n">
-        <v>83.333333333333</v>
+        <v>91.666666666667</v>
       </c>
       <c r="BC25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BE25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BF25" t="n">
-        <v>100</v>
+        <v>88.888888888889</v>
       </c>
       <c r="BG25" t="n">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="BH25" t="n">
         <v>0</v>
       </c>
       <c r="BI25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ25" t="n">
         <v>0</v>
@@ -9399,19 +9397,19 @@
         <v>0</v>
       </c>
       <c r="BM25" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BN25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO25" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="BP25" t="n">
         <v>0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>74.09999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="BR25" t="n">
         <v>11</v>
@@ -9420,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="BT25" t="n">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="BU25" t="n">
         <v>0</v>
@@ -9447,10 +9445,10 @@
         <v>0</v>
       </c>
       <c r="CC25" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="CD25" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="CE25" t="n">
         <v>0</v>
@@ -9459,101 +9457,457 @@
         <v>0</v>
       </c>
       <c r="CG25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CH25" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="CI25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CJ25" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="CK25" t="n">
         <v>4</v>
       </c>
       <c r="CL25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CM25" t="n">
+        <v>4</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>11</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>205</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>4</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>258</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>142</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>72</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>2294419</v>
+      </c>
+      <c r="DK25" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="DL25" t="n">
+        <v>-8.1302</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Michael Zetterer</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>190161</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.7363636363636</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11</v>
+      </c>
+      <c r="H26" t="n">
+        <v>990</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.03118931</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>512</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>293</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>73.989898989899</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>396</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>243</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>97</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>127</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
         <v>5</v>
       </c>
-      <c r="CN25" t="n">
+      <c r="BB26" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>106</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>23</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>17</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>11</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>103</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>58</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>40</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>15</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>8</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM26" t="n">
         <v>5</v>
       </c>
-      <c r="CO25" t="n">
+      <c r="CN26" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO26" t="n">
         <v>7</v>
       </c>
-      <c r="CP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ25" t="n">
+      <c r="CP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ26" t="n">
         <v>194</v>
       </c>
-      <c r="DA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF25" t="n">
+      <c r="DA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF26" t="n">
         <v>273</v>
       </c>
-      <c r="DG25" t="n">
+      <c r="DG26" t="n">
         <v>123</v>
       </c>
-      <c r="DH25" t="n">
+      <c r="DH26" t="n">
         <v>52</v>
       </c>
-      <c r="DI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ25" t="n">
+      <c r="DI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ26" t="n">
         <v>2163103</v>
       </c>
-      <c r="DK25" t="inlineStr">
+      <c r="DK26" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL25" t="n">
+      <c r="DL26" t="n">
         <v>-3.6945</v>
       </c>
     </row>

--- a/sofaplayer/Bundesliga/Eintracht Frankfurt_stats.xlsx
+++ b/sofaplayer/Bundesliga/Eintracht Frankfurt_stats.xlsx
@@ -1765,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.2729</v>
+        <v>1.2873</v>
       </c>
       <c r="L4" t="n">
         <v>238</v>
@@ -2477,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1486</v>
+        <v>0.1254</v>
       </c>
       <c r="L6" t="n">
         <v>76.5</v>
@@ -3527,7 +3527,7 @@
         <v>66518</v>
       </c>
       <c r="E9" t="n">
-        <v>6.50625</v>
+        <v>6.5125</v>
       </c>
       <c r="F9" t="n">
         <v>16</v>
@@ -3596,7 +3596,7 @@
         <v>1.44653868</v>
       </c>
       <c r="AB9" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AC9" t="n">
         <v>2</v>
@@ -3608,10 +3608,10 @@
         <v>308</v>
       </c>
       <c r="AF9" t="n">
-        <v>84.615384615385</v>
+        <v>84.383561643836</v>
       </c>
       <c r="AG9" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AH9" t="n">
         <v>152</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BH9" t="n">
         <v>6</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="BR9" t="n">
         <v>16</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="DG9" t="n">
         <v>195</v>
@@ -3901,7 +3901,7 @@
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5306</v>
+        <v>2.5226</v>
       </c>
       <c r="L10" t="n">
         <v>454.25</v>
@@ -3949,7 +3949,7 @@
         <v>5</v>
       </c>
       <c r="AA10" t="n">
-        <v>4.07322397</v>
+        <v>4.07322497</v>
       </c>
       <c r="AB10" t="n">
         <v>1105</v>
@@ -4000,7 +4000,7 @@
         <v>14</v>
       </c>
       <c r="AR10" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
@@ -4595,7 +4595,7 @@
         <v>1142211</v>
       </c>
       <c r="E12" t="n">
-        <v>6.6933333333333</v>
+        <v>6.6866666666667</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
@@ -4613,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8329</v>
+        <v>0.8017</v>
       </c>
       <c r="L12" t="n">
         <v>972</v>
@@ -4676,10 +4676,10 @@
         <v>423</v>
       </c>
       <c r="AF12" t="n">
-        <v>81.976744186047</v>
+        <v>82.135922330097</v>
       </c>
       <c r="AG12" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AH12" t="n">
         <v>208</v>
@@ -4703,7 +4703,7 @@
         <v>50</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>11</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="BR12" t="n">
         <v>15</v>
@@ -4796,7 +4796,7 @@
         <v>3</v>
       </c>
       <c r="BT12" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="DG12" t="n">
         <v>273</v>
@@ -5017,7 +5017,7 @@
         <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.13948984</v>
+        <v>2.13849284</v>
       </c>
       <c r="AB13" t="n">
         <v>466</v>
@@ -5325,7 +5325,7 @@
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4708</v>
+        <v>3.3458</v>
       </c>
       <c r="L14" t="n">
         <v>253.5</v>
@@ -5681,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7388</v>
+        <v>0.715</v>
       </c>
       <c r="L15" t="n">
         <v>289.5</v>
@@ -7154,7 +7154,7 @@
         <v>0.72963642</v>
       </c>
       <c r="AB19" t="n">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7247,7 +7247,7 @@
         <v>62.809917355372</v>
       </c>
       <c r="BG19" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BH19" t="n">
         <v>21</v>
@@ -7385,10 +7385,10 @@
         <v>145</v>
       </c>
       <c r="DA19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DB19" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.0737</v>
+        <v>2.0857</v>
       </c>
       <c r="L20" t="n">
         <v>541</v>
@@ -7507,7 +7507,7 @@
         <v>4</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.12818103</v>
+        <v>2.12604843</v>
       </c>
       <c r="AB20" t="n">
         <v>1035</v>
@@ -7519,10 +7519,10 @@
         <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF20" t="n">
-        <v>82.87461773700301</v>
+        <v>82.721712538226</v>
       </c>
       <c r="AG20" t="n">
         <v>654</v>
@@ -7531,10 +7531,10 @@
         <v>304</v>
       </c>
       <c r="AI20" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ20" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK20" t="n">
         <v>20</v>
@@ -7558,7 +7558,7 @@
         <v>7</v>
       </c>
       <c r="AR20" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AS20" t="n">
         <v>16</v>
@@ -7603,7 +7603,7 @@
         <v>28.571428571429</v>
       </c>
       <c r="BG20" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BH20" t="n">
         <v>17</v>
@@ -7642,7 +7642,7 @@
         <v>7</v>
       </c>
       <c r="BT20" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7863,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.13840613</v>
+        <v>1.13840623</v>
       </c>
       <c r="AB21" t="n">
         <v>1394</v>
@@ -9219,7 +9219,7 @@
         <v>1134203</v>
       </c>
       <c r="E25" t="n">
-        <v>6.5</v>
+        <v>6.4545454545455</v>
       </c>
       <c r="F25" t="n">
         <v>11</v>
@@ -9286,7 +9286,7 @@
         <v>0.01917352</v>
       </c>
       <c r="AB25" t="n">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>71.5</v>
+        <v>71</v>
       </c>
       <c r="BR25" t="n">
         <v>11</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="CC25" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CD25" t="n">
         <v>16</v>
@@ -9472,7 +9472,7 @@
         <v>4</v>
       </c>
       <c r="CL25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CM25" t="n">
         <v>4</v>
@@ -9481,7 +9481,7 @@
         <v>4</v>
       </c>
       <c r="CO25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CP25" t="n">
         <v>1</v>
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="DL25" t="n">
-        <v>-8.1302</v>
+        <v>-8.2836</v>
       </c>
     </row>
     <row r="26">
